--- a/Emotions-547360408.xlsx
+++ b/Emotions-547360408.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>Дата</t>
   </si>
@@ -103,6 +103,9 @@
     <t>18:07:54.304361</t>
   </si>
   <si>
+    <t>19:04:36.500408</t>
+  </si>
+  <si>
     <t>удивление</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>радость</t>
   </si>
   <si>
+    <t>Печаль</t>
+  </si>
+  <si>
     <t>Ожиданием</t>
   </si>
   <si>
@@ -224,6 +230,9 @@
   </si>
   <si>
     <t>Еду на тренировку</t>
+  </si>
+  <si>
+    <t>Натерла локоть</t>
   </si>
 </sst>
 </file>
@@ -585,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,10 +625,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -633,10 +642,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -650,10 +659,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -667,10 +676,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -684,10 +693,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -701,10 +710,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -718,10 +727,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -735,10 +744,10 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -752,10 +761,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -769,10 +778,10 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -786,10 +795,10 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -803,10 +812,10 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -820,10 +829,10 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -837,10 +846,10 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -854,10 +863,10 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -871,10 +880,10 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -888,10 +897,10 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -905,10 +914,10 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -922,10 +931,10 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -939,10 +948,10 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -956,10 +965,10 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -973,10 +982,10 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -990,10 +999,10 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1007,10 +1016,10 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1024,10 +1033,27 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44389</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
